--- a/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>ca215906-b386-4ed4-9b46-311fe745c6a6</t>
+    <t>b41d09c9-e048-4bce-8ac7-f85b44cdf30e</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>b41d09c9-e048-4bce-8ac7-f85b44cdf30e</t>
+    <t>6b589ce1-fc07-47af-b5ea-135f6ebf4a8e</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>6b589ce1-fc07-47af-b5ea-135f6ebf4a8e</t>
+    <t>0e719e7a-b741-4625-a6fc-dfa6907f3039</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>0e719e7a-b741-4625-a6fc-dfa6907f3039</t>
+    <t>7ecfe069-70f5-4a6f-8c57-b17a5b5e9884</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>7ecfe069-70f5-4a6f-8c57-b17a5b5e9884</t>
+    <t>43370386-464a-4e82-9e23-11daa5954df7</t>
   </si>
   <si>
     <t>AÇU</t>

--- a/storage/app/xlsx/seed_cidades_rn.xlsx
+++ b/storage/app/xlsx/seed_cidades_rn.xlsx
@@ -23,7 +23,7 @@
     <t>ACARIENSE</t>
   </si>
   <si>
-    <t>43370386-464a-4e82-9e23-11daa5954df7</t>
+    <t>7def3b49-d2c7-4626-9055-d201042b4c2c</t>
   </si>
   <si>
     <t>AÇU</t>
